--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\PractitionerPortal\workspace\PractitionerPortal_automation\Implement\PageObject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AndroidObject!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -39,9 +39,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -67,23 +67,14 @@
     <t>通用控件</t>
   </si>
   <si>
-    <t>用户名</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -91,9 +82,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -103,36 +94,15 @@
     </r>
   </si>
   <si>
-    <t>//input[@placeholder='User name']</t>
-  </si>
-  <si>
     <t>Xpath</t>
   </si>
   <si>
-    <t>//input[@placeholder='Password']</t>
-  </si>
-  <si>
-    <t>按钮</t>
-  </si>
-  <si>
-    <t>//button[@class='button button-block button-calm ng-binding']</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
-    <t>//i[@class='icon ion-person']</t>
-  </si>
-  <si>
     <t>页面名称</t>
   </si>
   <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
     <t>com.ibm.cio.be.ppm:id/et_intranetId</t>
   </si>
   <si>
@@ -161,55 +131,117 @@
   </si>
   <si>
     <t>kingsan</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeSecureTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>登   录</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>安利云购</t>
+  </si>
+  <si>
+    <t>我知道了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]//XCUIElementTypeImage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="@"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="横幅"]/XCUIElementTypeTextField</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0C0C0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -249,14 +281,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -264,60 +296,60 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -325,73 +357,83 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +441,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,7 +455,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -422,25 +464,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>176101</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>101575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -453,38 +488,38 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>620675</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>429954</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>75790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -497,38 +532,38 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>645927</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>101575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>252523</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -541,6 +576,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -550,7 +592,7 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -561,23 +603,16 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -590,38 +625,38 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>595423</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>63289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -634,11 +669,18 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -649,40 +691,40 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>126578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17916525"/>
-          <a:ext cx="7950200" cy="4133850"/>
+          <a:off x="0" y="17916524"/>
+          <a:ext cx="7950200" cy="4133852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -693,67 +735,60 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17916525"/>
-          <a:ext cx="9321800" cy="9086850"/>
+          <a:off x="0" y="17916524"/>
+          <a:ext cx="9321800" cy="9086852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>633301</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>50787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -766,38 +801,38 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>678490</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>620675</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr=" "/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -805,11 +840,18 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6578600" y="9591675"/>
-          <a:ext cx="8851900" cy="9086850"/>
+          <a:ext cx="8851900" cy="9086849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -818,9 +860,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -828,39 +870,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,7 +972,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -939,293 +981,234 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:IV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="4"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="96" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1234,8 +1217,8 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1243,126 +1226,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="90" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1370,8 +1369,9 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A11"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1383,9 +1383,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1420,8 +1420,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1434,13 +1434,13 @@
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="41.375" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
@@ -14,8 +14,6 @@
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
     <sheet name="iOSObject" sheetId="2" r:id="rId2"/>
-    <sheet name="test" sheetId="3" r:id="rId3"/>
-    <sheet name="test2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AndroidObject!$B$3:$B$4</definedName>
@@ -25,13 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -41,7 +38,6 @@
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -64,9 +60,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>通用控件</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -74,7 +67,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -97,12 +88,6 @@
     <t>Xpath</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>页面名称</t>
-  </si>
-  <si>
     <t>com.ibm.cio.be.ppm:id/et_intranetId</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t>登   录</t>
   </si>
   <si>
-    <t>//XCUIElementTypeButton</t>
-  </si>
-  <si>
     <t>Xpath</t>
   </si>
   <si>
@@ -158,38 +140,121 @@
   </si>
   <si>
     <t>我知道了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]//XCUIElementTypeImage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>搜索</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="@"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeOther[@name="横幅"]/XCUIElementTypeTextField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICHJAY咖啡饮品券</t>
+  </si>
+  <si>
+    <t>RICH &amp; JAY咖啡饮品券</t>
+  </si>
+  <si>
+    <t>RICHJAY咖啡饮品券</t>
+  </si>
+  <si>
+    <t>悦享分 + 现金：10.0+10.0</t>
+  </si>
+  <si>
+    <t>悦享分+现金</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="..."]/XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>立即兑换</t>
+  </si>
+  <si>
+    <t>主页面</t>
+  </si>
+  <si>
+    <t>兑换</t>
+  </si>
+  <si>
+    <t>输入手机号</t>
+  </si>
+  <si>
+    <t>确认手机号</t>
+  </si>
+  <si>
+    <t>提交成功</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[1]/XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[2]/XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>应付总金额</t>
+  </si>
+  <si>
+    <t>提交成功!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="应付总金额（元）"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣减悦享分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="扣减悦享分"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>登   录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -198,20 +263,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0C0C0C"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -228,8 +290,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -243,6 +310,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -266,12 +339,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -368,13 +441,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,12 +498,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -418,13 +528,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +541,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,412 +567,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176101</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>101575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="2714625"/>
-          <a:ext cx="4292600" cy="5556250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>620675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>429954</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6108700" y="2727325"/>
-          <a:ext cx="8724900" cy="8594725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>645927</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>252523</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3390900" y="127000"/>
-          <a:ext cx="7835900" cy="2625725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9321800" cy="9086850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595423</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>63289</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9074150"/>
-          <a:ext cx="5118100" cy="8750300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>126578</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="17916524"/>
-          <a:ext cx="7950200" cy="4133852"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="17916524"/>
-          <a:ext cx="9321800" cy="9086852"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>633301</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50787</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6578600" y="219075"/>
-          <a:ext cx="8864600" cy="9086850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>678490</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>620675</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6578600" y="9591675"/>
-          <a:ext cx="8851900" cy="9086849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,12 +848,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1160,55 +870,55 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1217,33 +927,34 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="86" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="89.875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1260,187 +971,239 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
+      <c r="A3" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -118,12 +118,6 @@
     <t>kingsan</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>//XCUIElementTypeSecureTextField</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>搜索</t>
   </si>
   <si>
-    <t>//XCUIElementTypeStaticText[@name="@"]</t>
-  </si>
-  <si>
     <t>输入框</t>
   </si>
   <si>
@@ -234,10 +225,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>兑换数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>登录</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -247,6 +234,138 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="兑换数量"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>安利号码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去结算</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去结算</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后中式炒锅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后中式炒锅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="皇后中式炒锅"])[2]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeLink[contains(@label, '购物车') and contains(@label, 'a')]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@label, '当前购货人')]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前购货人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="商品总数（件）"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="小计（元）:"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销赠品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@label, '附件')]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动信息确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="周一至周日"]/../XCUIElementTypeOther</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认配送方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="购货总额 :"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购货总额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值税专用发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -317,6 +436,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -344,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -472,13 +597,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +644,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -528,12 +674,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,15 +702,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,12 +1000,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -870,7 +1022,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -884,7 +1036,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -896,7 +1048,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -910,7 +1062,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -934,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -949,12 +1101,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -971,236 +1123,417 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="9" t="s">
-        <v>52</v>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A14:A20"/>
+  <mergeCells count="6">
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A15:A21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object的副本.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -365,7 +365,72 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>查看全部发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="网页对话框"]/XCUIElementTypeOther[2]/XCUIElementTypeOther[1]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>poc003支付选择</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认付款</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeOther[@name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>"]/XCUIElementTypeOther[3]/XCUIElementTypeOther</t>
+    </r>
+  </si>
+  <si>
+    <t>密码输入框</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +768,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1483,46 +1560,142 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="D33" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>7</v>
       </c>
     </row>
